--- a/biology/Zoologie/Daubentonia_robusta/Daubentonia_robusta.xlsx
+++ b/biology/Zoologie/Daubentonia_robusta/Daubentonia_robusta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daubentonia robusta est une espèce de lémurien aujourd'hui éteinte.
 Des subfossiles d'une forme géante d'aye-aye ont été découverts sur de nombreux sites dispersés au sud et au sud-ouest de l'île de Madagascar, en dehors de la zone de distribution connue de l'aye-aye vivant ou commun.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les restes découverts en 2004 consistent en quatre incisives, un tibia, et le matériel post-crânien.
 L'aye-aye subfossile, nommé Daubentonia robusta, déjà décrit en 1935, possède des os de membres massifs et très robustes impliquant une espèce avec un poids corporel 2,5 à 5 fois plus grand que celui des espèces vivantes.
@@ -545,7 +559,9 @@
           <t>Extinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les scientifiques, l'espèce dont le mode de vie est totalement inconnu a disparu il y a moins de 1 000 ans.
 Les dents ont été utilisées par les humains comme matériau de bijouterie.
